--- a/MLPL.xlsx
+++ b/MLPL.xlsx
@@ -245,7 +245,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">28-05-2025 10:19:08
+            <t xml:space="preserve">01-06-2025 15:00:53
 </t>
           </r>
           <r>
@@ -1452,188 +1452,6 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="12.25" customHeight="0">
-      <c s="3" t="inlineStr" r="A8">
-        <is>
-          <t xml:space="preserve">PR003000</t>
-        </is>
-      </c>
-      <c s="4" r="B8">
-        <v>45805.6393634259</v>
-      </c>
-      <c s="3" t="inlineStr" r="C8">
-        <is>
-          <t xml:space="preserve">FireFlink Cloud Professional License Renewal (NR)</t>
-        </is>
-      </c>
-      <c s="5" r="D8">
-        <v>1</v>
-      </c>
-      <c s="3" t="inlineStr" r="E8">
-        <is>
-          <t xml:space="preserve">MLBG16</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="F8">
-        <is>
-          <t xml:space="preserve">MMW2223268</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="G8">
-        <is>
-          <t xml:space="preserve">Service</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="H8">
-        <is>
-          <t xml:space="preserve">SER_1339</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="I8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="J8">
-        <is>
-          <t xml:space="preserve">FireFlink Extreme Automation Platform (Cloud Basic)</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="K8">
-        <is>
-          <t xml:space="preserve">FireFlink Extreme Automation Platform (Cloud Basic). Automated Software Testing Platform for Web, Android, iOS and APIs
-</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="L8">
-        <is>
-          <t xml:space="preserve">MATTERLINK PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="M8">
-        <is>
-          <t xml:space="preserve">MLNK01</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="N8">
-        <is>
-          <t xml:space="preserve">MLWH</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="O8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="6" r="P8">
-        <v>12</v>
-      </c>
-      <c s="3" t="inlineStr" r="Q8">
-        <is>
-          <t xml:space="preserve">INR</t>
-        </is>
-      </c>
-      <c s="7" r="R8">
-        <v>14972</v>
-      </c>
-      <c s="8" r="S8">
-        <v>179664</v>
-      </c>
-      <c s="9" t="inlineStr" r="T8">
-        <is>
-          <t xml:space="preserve">InReview</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="U8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="3" t="str" r="V8"/>
-      <c s="3" t="str" r="W8"/>
-      <c s="3" t="inlineStr" r="X8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="6" r="Y8">
-        <v>0</v>
-      </c>
-      <c s="7" r="Z8">
-        <v>0</v>
-      </c>
-      <c s="8" r="AA8">
-        <v>0</v>
-      </c>
-      <c s="9" t="inlineStr" r="AB8">
-        <is>
-          <t xml:space="preserve">None</t>
-        </is>
-      </c>
-      <c s="3" t="str" r="AC8"/>
-      <c s="6" r="AD8">
-        <v>0</v>
-      </c>
-      <c s="6" r="AE8">
-        <v>0</v>
-      </c>
-      <c s="3" t="inlineStr" r="AF8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="AG8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="3" t="str" r="AH8"/>
-      <c s="3" t="inlineStr" r="AI8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="AJ8">
-        <is>
-          <t xml:space="preserve">ML.DT.SFL.CFL</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="AK8">
-        <is>
-          <t xml:space="preserve">Firelink Cloud</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="AL8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="AM8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="AN8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="AO8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="AP8">
-        <is>
-          <t xml:space="preserve">00000381</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="AQ8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:AS1"/>

--- a/MLPL.xlsx
+++ b/MLPL.xlsx
@@ -245,7 +245,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">01-06-2025 15:00:53
+            <t xml:space="preserve">03-06-2025 06:54:10
 </t>
           </r>
           <r>
@@ -294,7 +294,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">28-05-2025</t>
+            <t xml:space="preserve">03-06-2025</t>
           </r>
         </is>
       </c>
@@ -1402,13 +1402,15 @@
       </c>
       <c s="3" t="inlineStr" r="AG7">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="3" t="str" r="AH7"/>
+          <t xml:space="preserve">ML/PO/25-26/00004</t>
+        </is>
+      </c>
+      <c s="4" r="AH7">
+        <v>45810.7549884259</v>
+      </c>
       <c s="3" t="inlineStr" r="AI7">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">FIREFLINK PRIVATE LIMITED</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="AJ7">
@@ -1449,6 +1451,376 @@
       <c s="3" t="inlineStr" r="AQ7">
         <is>
           <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.25" customHeight="0">
+      <c s="3" t="inlineStr" r="A8">
+        <is>
+          <t xml:space="preserve">PR003006</t>
+        </is>
+      </c>
+      <c s="4" r="B8">
+        <v>45810.6604050926</v>
+      </c>
+      <c s="3" t="inlineStr" r="C8">
+        <is>
+          <t xml:space="preserve">FireFlink Cloud Professional License Renewal (NR)</t>
+        </is>
+      </c>
+      <c s="5" r="D8">
+        <v>1</v>
+      </c>
+      <c s="3" t="inlineStr" r="E8">
+        <is>
+          <t xml:space="preserve">BG16</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="F8">
+        <is>
+          <t xml:space="preserve">MMW2324217</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="G8">
+        <is>
+          <t xml:space="preserve">Service</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="H8">
+        <is>
+          <t xml:space="preserve">SER_1339</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="I8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="J8">
+        <is>
+          <t xml:space="preserve">FireFlink Extreme Automation Platform (Cloud Basic)</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="K8">
+        <is>
+          <t xml:space="preserve">FireFlink Extreme Automation Platform (Cloud Basic). Automated Software Testing Platform for Web, Android, iOS and APIs
+</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="L8">
+        <is>
+          <t xml:space="preserve">MATTERLINK PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="M8">
+        <is>
+          <t xml:space="preserve">MLNK01</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="N8">
+        <is>
+          <t xml:space="preserve">MLWH</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="O8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="6" r="P8">
+        <v>12</v>
+      </c>
+      <c s="3" t="inlineStr" r="Q8">
+        <is>
+          <t xml:space="preserve">INR</t>
+        </is>
+      </c>
+      <c s="7" r="R8">
+        <v>14972</v>
+      </c>
+      <c s="8" r="S8">
+        <v>179664</v>
+      </c>
+      <c s="9" t="inlineStr" r="T8">
+        <is>
+          <t xml:space="preserve">Cancelled</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="U8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="str" r="V8"/>
+      <c s="3" t="str" r="W8"/>
+      <c s="3" t="inlineStr" r="X8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="6" r="Y8">
+        <v>0</v>
+      </c>
+      <c s="7" r="Z8">
+        <v>0</v>
+      </c>
+      <c s="8" r="AA8">
+        <v>0</v>
+      </c>
+      <c s="9" t="inlineStr" r="AB8">
+        <is>
+          <t xml:space="preserve">None</t>
+        </is>
+      </c>
+      <c s="3" t="str" r="AC8"/>
+      <c s="6" r="AD8">
+        <v>0</v>
+      </c>
+      <c s="6" r="AE8">
+        <v>0</v>
+      </c>
+      <c s="3" t="inlineStr" r="AF8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AG8">
+        <is>
+          <t xml:space="preserve">ML/PO/25-26/00004</t>
+        </is>
+      </c>
+      <c s="4" r="AH8">
+        <v>45810.7549884259</v>
+      </c>
+      <c s="3" t="inlineStr" r="AI8">
+        <is>
+          <t xml:space="preserve">FIREFLINK PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AJ8">
+        <is>
+          <t xml:space="preserve">ML.DT.SFL.CFL</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AK8">
+        <is>
+          <t xml:space="preserve">Firelink Cloud</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AL8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AM8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AN8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AO8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AP8">
+        <is>
+          <t xml:space="preserve">00000381</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AQ8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.25" customHeight="0">
+      <c s="3" t="inlineStr" r="A9">
+        <is>
+          <t xml:space="preserve">PR003031</t>
+        </is>
+      </c>
+      <c s="4" r="B9">
+        <v>45810.7494907407</v>
+      </c>
+      <c s="3" t="inlineStr" r="C9">
+        <is>
+          <t xml:space="preserve">ML : FireFlink Cloud Professional License Renewal (NR)</t>
+        </is>
+      </c>
+      <c s="5" r="D9">
+        <v>1</v>
+      </c>
+      <c s="3" t="inlineStr" r="E9">
+        <is>
+          <t xml:space="preserve">BG16</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="F9">
+        <is>
+          <t xml:space="preserve">MMW2324217</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="G9">
+        <is>
+          <t xml:space="preserve">Service</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="H9">
+        <is>
+          <t xml:space="preserve">SER_1339</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="I9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="J9">
+        <is>
+          <t xml:space="preserve">FireFlink Extreme Automation Platform (Cloud Basic)</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="K9">
+        <is>
+          <t xml:space="preserve">FireFlink Extreme Automation Platform (Cloud Basic). Automated Software Testing Platform for Web, Android, iOS and APIs
+</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="L9">
+        <is>
+          <t xml:space="preserve">MATTERLINK PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="M9">
+        <is>
+          <t xml:space="preserve">MLNK01</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="N9">
+        <is>
+          <t xml:space="preserve">MLWH</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="O9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="6" r="P9">
+        <v>12</v>
+      </c>
+      <c s="3" t="inlineStr" r="Q9">
+        <is>
+          <t xml:space="preserve">INR</t>
+        </is>
+      </c>
+      <c s="7" r="R9">
+        <v>14972</v>
+      </c>
+      <c s="8" r="S9">
+        <v>179664</v>
+      </c>
+      <c s="9" t="inlineStr" r="T9">
+        <is>
+          <t xml:space="preserve">Closed</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="U9">
+        <is>
+          <t xml:space="preserve">ML/PO/25-26/00004</t>
+        </is>
+      </c>
+      <c s="4" r="V9">
+        <v>45810.7549884259</v>
+      </c>
+      <c s="4" r="W9">
+        <v>45810</v>
+      </c>
+      <c s="3" t="inlineStr" r="X9">
+        <is>
+          <t xml:space="preserve">FIREFLINK PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c s="6" r="Y9">
+        <v>12</v>
+      </c>
+      <c s="7" r="Z9">
+        <v>14098.54</v>
+      </c>
+      <c s="8" r="AA9">
+        <v>169182.48</v>
+      </c>
+      <c s="9" t="inlineStr" r="AB9">
+        <is>
+          <t xml:space="preserve">Backorder</t>
+        </is>
+      </c>
+      <c s="3" t="str" r="AC9"/>
+      <c s="6" r="AD9">
+        <v>0</v>
+      </c>
+      <c s="6" r="AE9">
+        <v>0</v>
+      </c>
+      <c s="3" t="inlineStr" r="AF9">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AG9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="str" r="AH9"/>
+      <c s="3" t="inlineStr" r="AI9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AJ9">
+        <is>
+          <t xml:space="preserve">ML.DT.SFL.CFL</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AK9">
+        <is>
+          <t xml:space="preserve">Firelink Cloud</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AL9">
+        <is>
+          <t xml:space="preserve">ML.DT.SFL.CFL</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AM9">
+        <is>
+          <t xml:space="preserve">Firelink Cloud</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AN9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AO9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AP9">
+        <is>
+          <t xml:space="preserve">00000381</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="AQ9">
+        <is>
+          <t xml:space="preserve">00000381</t>
         </is>
       </c>
     </row>

--- a/MLPL.xlsx
+++ b/MLPL.xlsx
@@ -245,7 +245,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">25-12-2025 06:08:28
+            <t xml:space="preserve">30-01-2026 11:08:18
 </t>
           </r>
           <r>
@@ -294,7 +294,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">25-12-2025</t>
+            <t xml:space="preserve">30-01-2026</t>
           </r>
         </is>
       </c>
